--- a/Data/fertility_data.xlsx
+++ b/Data/fertility_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saadyaldram/Desktop/RealEstate-vs-Demographics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BCC6E9-AE8B-BC4C-852B-7F872DCCB81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A0A3DC-2D96-6249-AA50-EA869F6759B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="640" windowWidth="52800" windowHeight="28120" xr2:uid="{6C4C5D3B-4FCB-C44C-AEB5-E6AC2C3C5E91}"/>
+    <workbookView xWindow="1460" yWindow="940" windowWidth="27940" windowHeight="27280" xr2:uid="{6C4C5D3B-4FCB-C44C-AEB5-E6AC2C3C5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:FB133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FJ18" sqref="FJ18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/fertility_data.xlsx
+++ b/Data/fertility_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saadyaldram/Desktop/RealEstate-vs-Demographics/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57A0A3DC-2D96-6249-AA50-EA869F6759B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E64FB-B532-1D41-9E23-7AB8B0228EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="940" windowWidth="27940" windowHeight="27280" xr2:uid="{6C4C5D3B-4FCB-C44C-AEB5-E6AC2C3C5E91}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="27940" windowHeight="21100" xr2:uid="{6C4C5D3B-4FCB-C44C-AEB5-E6AC2C3C5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:FB133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
